--- a/References/stats.xlsx
+++ b/References/stats.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="6">
   <si>
     <t>Tree</t>
   </si>
@@ -22,7 +22,16 @@
     <t>SkipList</t>
   </si>
   <si>
-    <t>Insertion time vs thread</t>
+    <t>Access</t>
+  </si>
+  <si>
+    <t>Modify</t>
+  </si>
+  <si>
+    <t>Dense</t>
+  </si>
+  <si>
+    <t>Sparse</t>
   </si>
 </sst>
 </file>
@@ -98,19 +107,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="95000"/>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:effectLst>
-                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                    <a:prstClr val="black">
-                      <a:alpha val="40000"/>
-                    </a:prstClr>
-                  </a:outerShdw>
-                </a:effectLst>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
@@ -118,13 +121,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Skip List vs. Binary Trees:</a:t>
+              <a:t>Tree vs. Skip List: Dense Access</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Access</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -142,19 +140,13 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -166,99 +158,118 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.6304084885946472E-2"/>
+          <c:y val="0.35453892238571938"/>
+          <c:w val="0.8756993796800403"/>
+          <c:h val="0.27923304190217763"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tree</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
-            <a:ln w="34925" cap="rnd">
+            <a:ln w="31750" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="35000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
+            <c:symbol val="circle"/>
+            <c:size val="17"/>
             <c:spPr>
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1">
-                        <a:lumMod val="85000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="lt1">
-                          <a:lumMod val="95000"/>
-                          <a:alpha val="54000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$7:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$C$3</c:f>
+              <c:f>Sheet1!$B$7:$B$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>411.25</c:v>
+                  <c:v>410.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>637.75</c:v>
+                  <c:v>645.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1703.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3935.66</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6120.01</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8242.32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17016.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>36318.800000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -268,92 +279,101 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SkipList</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
-            <a:ln w="34925" cap="rnd">
+            <a:ln w="31750" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="35000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
+            <c:symbol val="circle"/>
+            <c:size val="17"/>
             <c:spPr>
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1">
-                        <a:lumMod val="85000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="lt1">
-                          <a:lumMod val="95000"/>
-                          <a:alpha val="54000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$7:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$C$4</c:f>
+              <c:f>Sheet1!$C$7:$C$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>518.75</c:v>
+                  <c:v>505</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>524.5</c:v>
+                  <c:v>515.04999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>550.67499999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>544.80700000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>534.91700000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>533.28099999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>522.55600000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>558.70299999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -361,20 +381,21 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
+          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
+          <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="972830272"/>
-        <c:axId val="972825376"/>
+        <c:axId val="-1368075824"/>
+        <c:axId val="-1368076368"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="972830272"/>
+        <c:axId val="-1368075824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -387,10 +408,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="lt1">
-                        <a:lumMod val="85000"/>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -419,10 +441,11 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="lt1">
-                      <a:lumMod val="85000"/>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -434,16 +457,17 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:majorTickMark val="out"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:lumMod val="95000"/>
-                <a:alpha val="10000"/>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -455,10 +479,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -469,7 +494,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="972825376"/>
+        <c:crossAx val="-1368076368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -477,21 +502,33 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="972825376"/>
+        <c:axId val="-1368076368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
-                  <a:alpha val="10000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="95000"/>
+                      <a:lumOff val="5000"/>
+                      <a:alpha val="42000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                      <a:alpha val="36000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -504,10 +541,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="lt1">
-                        <a:lumMod val="85000"/>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -517,23 +555,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Execution Time</a:t>
+                  <a:t>Execution Time (Nanoseconds)</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> (</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" cap="all" baseline="0">
-                    <a:effectLst/>
-                  </a:rPr>
-                  <a:t>nanoseconds</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t>)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -551,10 +574,11 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="lt1">
-                      <a:lumMod val="85000"/>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -567,36 +591,10 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="972830272"/>
+        <c:crossAx val="-1368075824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -616,25 +614,2895 @@
     <a:gradFill flip="none" rotWithShape="1">
       <a:gsLst>
         <a:gs pos="0">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
         </a:gs>
         <a:gs pos="100000">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="85000"/>
-            <a:lumOff val="15000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
           </a:schemeClr>
         </a:gs>
       </a:gsLst>
       <a:path path="circle">
-        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
       </a:path>
       <a:tileRect/>
     </a:gradFill>
-    <a:ln>
-      <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Tree vs. Skip List: Dense Modify</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tree</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="17"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$20:$A$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$20:$B$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>396.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>622.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1483.33</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3756.94</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5809</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7839.43</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15844</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>33703.199999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SkipList</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="17"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$20:$A$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$20:$C$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>470.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>497.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>534.375</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>543.94299999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>543.43299999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>532.66300000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>522.14700000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>552.81600000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-1267979440"/>
+        <c:axId val="-1267974544"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-1267979440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1267974544"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1267974544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="95000"/>
+                      <a:lumOff val="5000"/>
+                      <a:alpha val="42000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                      <a:alpha val="36000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Execution Time (Nanoseconds)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-1267979440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Tree vs. Skip List: Sparse Access</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$34:$B$35</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Access</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Tree</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="17"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$36:$A$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$36:$B$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1087.83</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1336.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1943.92</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4977.43</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4958.16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3835.31</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5306.12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10738.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18514.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$34:$C$35</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Access</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SkipList</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="17"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$36:$A$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$36:$C$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1907.58</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2085.8000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1784.03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1429.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1436.53</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1183.97</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1120.22</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1081.9000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1047.18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-1260614064"/>
+        <c:axId val="-1260608080"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-1260614064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1260608080"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1260608080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="95000"/>
+                      <a:lumOff val="5000"/>
+                      <a:alpha val="42000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                      <a:alpha val="36000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Execution Time (Nanoseconds)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-1260614064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Tree vs. Skip List: Sparse Modify</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$49</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tree</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="17"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$50:$A$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$50:$B$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>927.83299999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1196.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1675.95</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3580.79</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3444.86</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2886.71</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3503.38</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5979.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8263.31</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$49</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SkipList</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="17"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$50:$A$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$50:$C$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1160.42</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1132.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1095.45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1096.79</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1083.56</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1012.01</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>920.56899999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>926.51700000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>939.28899999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-1260616240"/>
+        <c:axId val="-1260598832"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-1260616240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1260598832"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1260598832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="95000"/>
+                      <a:lumOff val="5000"/>
+                      <a:alpha val="42000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                      <a:alpha val="36000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Execution Time (Nanoseconds)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-1260616240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Tree vs. Skip List: Sparser Access</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$M$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tree</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="17"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$L$36:$L$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$M$36:$M$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2478.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2403.5500000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1810.45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1536.47</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1551.55</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1313.17</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1681.36</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1146.44</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1050.31</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$N$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SkipList</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="17"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$L$36:$L$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$36:$N$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>5072.1000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4324.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3552.95</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2790.35</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2520.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2049.9899999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1789.32</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1644.71</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1390.41</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-1355314656"/>
+        <c:axId val="-1355311936"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-1355314656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1355311936"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1355311936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="95000"/>
+                      <a:lumOff val="5000"/>
+                      <a:alpha val="42000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                      <a:alpha val="36000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Execution Time (Nanoseconds)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-1355314656"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Tree vs. Skip List: Sparser Modify</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$M$49</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tree</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="17"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$L$50:$L$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$M$50:$M$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1969.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1797.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1392.85</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1335.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1174.4000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1159.69</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1194.81</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1004.85</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>913.13300000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$N$49</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SkipList</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="17"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$L$50:$L$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$50:$N$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>3048.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2937.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2880.18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2073.56</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1878.62</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1609.53</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1528.35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1366.86</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1206.6199999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-1355320640"/>
+        <c:axId val="-1355322816"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-1355320640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1355322816"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1355322816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="95000"/>
+                      <a:lumOff val="5000"/>
+                      <a:alpha val="42000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                      <a:alpha val="36000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Execution Time (Nanoseconds)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-1355320640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -696,40 +3564,242 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="228">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="10000"/>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
   </cs:categoryAxis>
   <cs:chartArea>
     <cs:lnRef idx="0"/>
@@ -742,88 +3812,127 @@
       <a:gradFill flip="none" rotWithShape="1">
         <a:gsLst>
           <a:gs pos="0">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="65000"/>
-              <a:lumOff val="35000"/>
-            </a:schemeClr>
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
           </a:gs>
           <a:gs pos="100000">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="85000"/>
-              <a:lumOff val="15000"/>
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
             </a:schemeClr>
           </a:gs>
         </a:gsLst>
         <a:path path="circle">
-          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
         </a:path>
         <a:tileRect/>
       </a:gradFill>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+          <a:alpha val="75000"/>
+        </a:schemeClr>
       </a:solidFill>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
       <a:spAutoFit/>
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="34925" cap="rnd">
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -832,34 +3941,29 @@
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="17"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -875,16 +3979,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -896,20 +4001,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -920,14 +4025,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:prstDash val="dash"/>
@@ -939,13 +4044,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -957,7 +4063,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
@@ -965,16 +4071,28 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="10000"/>
-          </a:schemeClr>
-        </a:solidFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
@@ -984,16 +4102,28 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="5000"/>
-          </a:schemeClr>
-        </a:solidFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -1002,14 +4132,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:prstDash val="dash"/>
@@ -1021,14 +4151,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -1039,10 +4169,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
   <cs:plotArea>
@@ -1050,7 +4189,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D>
@@ -1058,7 +4197,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -1066,16 +4205,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1088,14 +4228,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1107,19 +4247,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="95000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
-      <a:effectLst>
-        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="40000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
-    </cs:defRPr>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -1128,7 +4261,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
@@ -1143,8 +4276,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1154,7 +4288,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -1162,9 +4296,9 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -1175,10 +4309,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -1186,7 +4326,2847 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="228">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="17"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="228">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="17"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="228">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="17"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="228">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="17"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="228">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="17"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
@@ -1196,20 +7176,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>4761</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="3" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1219,6 +7199,164 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>14287</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>600076</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>600076</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>600076</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1514,65 +7652,631 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A4:N58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+      <selection activeCell="W51" sqref="W51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
         <v>1</v>
       </c>
-      <c r="C2">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>410.8</v>
+      </c>
+      <c r="C7">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>2</v>
       </c>
-      <c r="D2">
+      <c r="B8">
+        <v>645.9</v>
+      </c>
+      <c r="C8">
+        <v>515.04999999999995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>4</v>
       </c>
-      <c r="E2">
+      <c r="B9">
+        <v>1703.75</v>
+      </c>
+      <c r="C9">
+        <v>550.67499999999995</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>8</v>
       </c>
-      <c r="F2">
+      <c r="B10">
+        <v>3935.66</v>
+      </c>
+      <c r="C10">
+        <v>544.80700000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>12</v>
       </c>
-      <c r="G2">
+      <c r="B11">
+        <v>6120.01</v>
+      </c>
+      <c r="C11">
+        <v>534.91700000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>16</v>
       </c>
-      <c r="H2">
+      <c r="B12">
+        <v>8242.32</v>
+      </c>
+      <c r="C12">
+        <v>533.28099999999995</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>32</v>
       </c>
-      <c r="I2">
+      <c r="B13">
+        <v>17016.400000000001</v>
+      </c>
+      <c r="C13">
+        <v>522.55600000000004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>64</v>
       </c>
+      <c r="B14">
+        <v>36318.800000000003</v>
+      </c>
+      <c r="C14">
+        <v>558.70299999999997</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
         <v>0</v>
       </c>
-      <c r="B3">
-        <v>411.25</v>
-      </c>
-      <c r="C3">
-        <v>637.75</v>
+      <c r="C19" t="s">
+        <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>1</v>
       </c>
-      <c r="B4">
-        <v>518.75</v>
-      </c>
-      <c r="C4">
-        <v>524.5</v>
+      <c r="B20">
+        <v>396.2</v>
+      </c>
+      <c r="C20">
+        <v>470.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21">
+        <v>622.1</v>
+      </c>
+      <c r="C21">
+        <v>497.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>4</v>
+      </c>
+      <c r="B22">
+        <v>1483.33</v>
+      </c>
+      <c r="C22">
+        <v>534.375</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>8</v>
+      </c>
+      <c r="B23">
+        <v>3756.94</v>
+      </c>
+      <c r="C23">
+        <v>543.94299999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>12</v>
+      </c>
+      <c r="B24">
+        <v>5809</v>
+      </c>
+      <c r="C24">
+        <v>543.43299999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>16</v>
+      </c>
+      <c r="B25">
+        <v>7839.43</v>
+      </c>
+      <c r="C25">
+        <v>532.66300000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>32</v>
+      </c>
+      <c r="B26">
+        <v>15844</v>
+      </c>
+      <c r="C26">
+        <v>522.14700000000005</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>64</v>
+      </c>
+      <c r="B27">
+        <v>33703.199999999997</v>
+      </c>
+      <c r="C27">
+        <v>552.81600000000003</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33">
+        <v>1000</v>
+      </c>
+      <c r="M33">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>2</v>
+      </c>
+      <c r="M34" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1</v>
+      </c>
+      <c r="M35" t="s">
+        <v>0</v>
+      </c>
+      <c r="N35" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36">
+        <v>1087.83</v>
+      </c>
+      <c r="C36">
+        <v>1907.58</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>2478.1</v>
+      </c>
+      <c r="N36">
+        <v>5072.1000000000004</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>2</v>
+      </c>
+      <c r="B37">
+        <v>1336.5</v>
+      </c>
+      <c r="C37">
+        <v>2085.8000000000002</v>
+      </c>
+      <c r="L37">
+        <v>2</v>
+      </c>
+      <c r="M37">
+        <v>2403.5500000000002</v>
+      </c>
+      <c r="N37">
+        <v>4324.7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>4</v>
+      </c>
+      <c r="B38">
+        <v>1943.92</v>
+      </c>
+      <c r="C38">
+        <v>1784.03</v>
+      </c>
+      <c r="L38">
+        <v>4</v>
+      </c>
+      <c r="M38">
+        <v>1810.45</v>
+      </c>
+      <c r="N38">
+        <v>3552.95</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>8</v>
+      </c>
+      <c r="B39">
+        <v>4977.43</v>
+      </c>
+      <c r="C39">
+        <v>1429.9</v>
+      </c>
+      <c r="L39">
+        <v>8</v>
+      </c>
+      <c r="M39">
+        <v>1536.47</v>
+      </c>
+      <c r="N39">
+        <v>2790.35</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>12</v>
+      </c>
+      <c r="B40">
+        <v>4958.16</v>
+      </c>
+      <c r="C40">
+        <v>1436.53</v>
+      </c>
+      <c r="L40">
+        <v>12</v>
+      </c>
+      <c r="M40">
+        <v>1551.55</v>
+      </c>
+      <c r="N40">
+        <v>2520.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>16</v>
+      </c>
+      <c r="B41">
+        <v>3835.31</v>
+      </c>
+      <c r="C41">
+        <v>1183.97</v>
+      </c>
+      <c r="L41">
+        <v>16</v>
+      </c>
+      <c r="M41">
+        <v>1313.17</v>
+      </c>
+      <c r="N41">
+        <v>2049.9899999999998</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>32</v>
+      </c>
+      <c r="B42">
+        <v>5306.12</v>
+      </c>
+      <c r="C42">
+        <v>1120.22</v>
+      </c>
+      <c r="L42">
+        <v>32</v>
+      </c>
+      <c r="M42">
+        <v>1681.36</v>
+      </c>
+      <c r="N42">
+        <v>1789.32</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>64</v>
+      </c>
+      <c r="B43">
+        <v>10738.7</v>
+      </c>
+      <c r="C43">
+        <v>1081.9000000000001</v>
+      </c>
+      <c r="L43">
+        <v>64</v>
+      </c>
+      <c r="M43">
+        <v>1146.44</v>
+      </c>
+      <c r="N43">
+        <v>1644.71</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>128</v>
+      </c>
+      <c r="B44">
+        <v>18514.3</v>
+      </c>
+      <c r="C44">
+        <v>1047.18</v>
+      </c>
+      <c r="L44">
+        <v>128</v>
+      </c>
+      <c r="M44">
+        <v>1050.31</v>
+      </c>
+      <c r="N44">
+        <v>1390.41</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>0</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1</v>
+      </c>
+      <c r="M49" t="s">
+        <v>0</v>
+      </c>
+      <c r="N49" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>1</v>
+      </c>
+      <c r="B50">
+        <v>927.83299999999997</v>
+      </c>
+      <c r="C50">
+        <v>1160.42</v>
+      </c>
+      <c r="L50">
+        <v>1</v>
+      </c>
+      <c r="M50">
+        <v>1969.3</v>
+      </c>
+      <c r="N50">
+        <v>3048.3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>2</v>
+      </c>
+      <c r="B51">
+        <v>1196.75</v>
+      </c>
+      <c r="C51">
+        <v>1132.25</v>
+      </c>
+      <c r="L51">
+        <v>2</v>
+      </c>
+      <c r="M51">
+        <v>1797.25</v>
+      </c>
+      <c r="N51">
+        <v>2937.9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>4</v>
+      </c>
+      <c r="B52">
+        <v>1675.95</v>
+      </c>
+      <c r="C52">
+        <v>1095.45</v>
+      </c>
+      <c r="L52">
+        <v>4</v>
+      </c>
+      <c r="M52">
+        <v>1392.85</v>
+      </c>
+      <c r="N52">
+        <v>2880.18</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>8</v>
+      </c>
+      <c r="B53">
+        <v>3580.79</v>
+      </c>
+      <c r="C53">
+        <v>1096.79</v>
+      </c>
+      <c r="L53">
+        <v>8</v>
+      </c>
+      <c r="M53">
+        <v>1335.25</v>
+      </c>
+      <c r="N53">
+        <v>2073.56</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>12</v>
+      </c>
+      <c r="B54">
+        <v>3444.86</v>
+      </c>
+      <c r="C54">
+        <v>1083.56</v>
+      </c>
+      <c r="L54">
+        <v>12</v>
+      </c>
+      <c r="M54">
+        <v>1174.4000000000001</v>
+      </c>
+      <c r="N54">
+        <v>1878.62</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>16</v>
+      </c>
+      <c r="B55">
+        <v>2886.71</v>
+      </c>
+      <c r="C55">
+        <v>1012.01</v>
+      </c>
+      <c r="L55">
+        <v>16</v>
+      </c>
+      <c r="M55">
+        <v>1159.69</v>
+      </c>
+      <c r="N55">
+        <v>1609.53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>32</v>
+      </c>
+      <c r="B56">
+        <v>3503.38</v>
+      </c>
+      <c r="C56">
+        <v>920.56899999999996</v>
+      </c>
+      <c r="L56">
+        <v>32</v>
+      </c>
+      <c r="M56">
+        <v>1194.81</v>
+      </c>
+      <c r="N56">
+        <v>1528.35</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>64</v>
+      </c>
+      <c r="B57">
+        <v>5979.7</v>
+      </c>
+      <c r="C57">
+        <v>926.51700000000005</v>
+      </c>
+      <c r="L57">
+        <v>64</v>
+      </c>
+      <c r="M57">
+        <v>1004.85</v>
+      </c>
+      <c r="N57">
+        <v>1366.86</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>128</v>
+      </c>
+      <c r="B58">
+        <v>8263.31</v>
+      </c>
+      <c r="C58">
+        <v>939.28899999999999</v>
+      </c>
+      <c r="L58">
+        <v>128</v>
+      </c>
+      <c r="M58">
+        <v>913.13300000000004</v>
+      </c>
+      <c r="N58">
+        <v>1206.6199999999999</v>
       </c>
     </row>
   </sheetData>

--- a/References/stats.xlsx
+++ b/References/stats.xlsx
@@ -394,11 +394,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1419360864"/>
-        <c:axId val="1419352704"/>
+        <c:axId val="2098857088"/>
+        <c:axId val="2098862528"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1419360864"/>
+        <c:axId val="2098857088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -497,7 +497,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1419352704"/>
+        <c:crossAx val="2098862528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -505,7 +505,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1419352704"/>
+        <c:axId val="2098862528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -612,7 +612,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1419360864"/>
+        <c:crossAx val="2098857088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -991,11 +991,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1419364128"/>
-        <c:axId val="1419357056"/>
+        <c:axId val="2098857632"/>
+        <c:axId val="2098867424"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1419364128"/>
+        <c:axId val="2098857632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1094,7 +1094,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1419357056"/>
+        <c:crossAx val="2098867424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1102,7 +1102,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1419357056"/>
+        <c:axId val="2098867424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1209,10 +1209,49 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1419364128"/>
+        <c:crossAx val="2098857632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1221,38 +1260,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1600,11 +1607,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1419353792"/>
-        <c:axId val="1419351616"/>
+        <c:axId val="2098858176"/>
+        <c:axId val="2098863072"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1419353792"/>
+        <c:axId val="2098858176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1703,7 +1710,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1419351616"/>
+        <c:crossAx val="2098863072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1711,7 +1718,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1419351616"/>
+        <c:axId val="2098863072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1818,7 +1825,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1419353792"/>
+        <c:crossAx val="2098858176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2209,11 +2216,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1419365216"/>
-        <c:axId val="1419352160"/>
+        <c:axId val="2098864160"/>
+        <c:axId val="2098865792"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1419365216"/>
+        <c:axId val="2098864160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2312,7 +2319,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1419352160"/>
+        <c:crossAx val="2098865792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2320,7 +2327,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1419352160"/>
+        <c:axId val="2098865792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2427,7 +2434,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1419365216"/>
+        <c:crossAx val="2098864160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2548,6 +2555,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2813,11 +2821,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1419359776"/>
-        <c:axId val="1419360320"/>
+        <c:axId val="2126649568"/>
+        <c:axId val="2126645216"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1419359776"/>
+        <c:axId val="2126649568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2849,6 +2857,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2915,7 +2924,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1419360320"/>
+        <c:crossAx val="2126645216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2923,7 +2932,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1419360320"/>
+        <c:axId val="2126645216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2981,6 +2990,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3014,7 +3024,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1419359776"/>
+        <c:crossAx val="2126649568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3384,11 +3394,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1419353248"/>
-        <c:axId val="1419363040"/>
+        <c:axId val="2126644672"/>
+        <c:axId val="2126652288"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1419353248"/>
+        <c:axId val="2126644672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3486,7 +3496,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1419363040"/>
+        <c:crossAx val="2126652288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3494,7 +3504,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1419363040"/>
+        <c:axId val="2126652288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3585,7 +3595,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1419353248"/>
+        <c:crossAx val="2126644672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3995,11 +4005,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1419350528"/>
-        <c:axId val="1419354880"/>
+        <c:axId val="2126655008"/>
+        <c:axId val="2126650112"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1419350528"/>
+        <c:axId val="2126655008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4098,7 +4108,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1419354880"/>
+        <c:crossAx val="2126650112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4106,7 +4116,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1419354880"/>
+        <c:axId val="2126650112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4213,7 +4223,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1419350528"/>
+        <c:crossAx val="2126655008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8259,16 +8269,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>33337</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>4762</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>400051</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8417,16 +8427,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>185736</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>571501</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8738,7 +8748,7 @@
   <dimension ref="A4:C93"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y41" sqref="Y41"/>
+      <selection activeCell="X32" sqref="X32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
